--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aumovio-my.sharepoint.com/personal/uidk3060_automotive-wan_com/Documents/PC백업/Priv/2512_가온마을 입주/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8003F15D-28CC-4317-AB7B-76D72F861298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC1201-8F1A-4F25-8ADE-37FDC0C59CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
     <sheet name="예산" sheetId="1" r:id="rId2"/>
     <sheet name="마루" sheetId="3" r:id="rId3"/>
-    <sheet name="전기" sheetId="4" r:id="rId4"/>
+    <sheet name="도배" sheetId="5" r:id="rId4"/>
+    <sheet name="전기" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에어컨 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +173,108 @@
   </si>
   <si>
     <t>https://naver.me/GkRAVBCL</t>
+  </si>
+  <si>
+    <t>우드스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라 캐러멜 (보드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회벽 크림화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트월 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트월 미포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가성비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거실, 천장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목공/전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거/시트지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마루(보양 예정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(진경재윤나형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(남권 청모)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(유진 회식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(현수 결혼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(엄빠 생일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 설치
+(유진 경락)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 사전방문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -183,11 +282,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="166" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -457,47 +556,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -506,13 +681,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -521,16 +696,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,50 +714,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -616,7 +854,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,68 +1259,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
-  <dimension ref="A4:L17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A5" s="34" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="27">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>46012</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>46013</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <v>46014</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <v>46015</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>46016</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>46017</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="26">
         <v>46018</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1091,7 +1347,9 @@
       <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1099,26 +1357,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="30">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>46019</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>46020</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <v>46021</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>46022</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>46023</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>46024</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="29">
         <v>46025</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1128,10 +1386,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="33" t="s">
-        <v>13</v>
+      <c r="B9" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -1139,146 +1397,158 @@
       <c r="F9" s="19"/>
       <c r="G9" s="22"/>
       <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>45661</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45662</v>
+      </c>
+      <c r="C10" s="28">
+        <v>45663</v>
+      </c>
+      <c r="D10" s="28">
+        <v>45664</v>
+      </c>
+      <c r="E10" s="28">
+        <v>45665</v>
+      </c>
+      <c r="F10" s="28">
+        <v>45666</v>
+      </c>
+      <c r="G10" s="29">
+        <v>45667</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30">
-        <v>45661</v>
-      </c>
-      <c r="B10" s="31">
-        <v>45662</v>
-      </c>
-      <c r="C10" s="31">
-        <v>45663</v>
-      </c>
-      <c r="D10" s="31">
-        <v>45664</v>
-      </c>
-      <c r="E10" s="31">
-        <v>45665</v>
-      </c>
-      <c r="F10" s="31">
-        <v>45666</v>
-      </c>
-      <c r="G10" s="32">
-        <v>45667</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="54" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="30">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>45668</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>45669</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>45670</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>45671</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <v>45672</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <v>45673</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="29">
         <v>45674</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="30">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>45675</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>45676</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="28">
         <v>45677</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="28">
         <v>45678</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <v>45679</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <v>45680</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <v>45681</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="57" t="s">
+        <v>56</v>
+      </c>
       <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>45682</v>
+      </c>
+      <c r="B16" s="28">
+        <v>45683</v>
+      </c>
+      <c r="C16" s="28">
+        <v>45684</v>
+      </c>
+      <c r="D16" s="28">
+        <v>45685</v>
+      </c>
+      <c r="E16" s="28">
+        <v>45686</v>
+      </c>
+      <c r="F16" s="28">
+        <v>45687</v>
+      </c>
+      <c r="G16" s="29">
+        <v>45688</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="30">
-        <v>45682</v>
-      </c>
-      <c r="B16" s="31">
-        <v>45683</v>
-      </c>
-      <c r="C16" s="31">
-        <v>45684</v>
-      </c>
-      <c r="D16" s="31">
-        <v>45685</v>
-      </c>
-      <c r="E16" s="31">
-        <v>45686</v>
-      </c>
-      <c r="F16" s="31">
-        <v>45687</v>
-      </c>
-      <c r="G16" s="32">
-        <v>45688</v>
-      </c>
-      <c r="J16" s="2" t="s">
+    <row r="17" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="36" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1292,34 +1562,35 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1598,7 @@
         <v>46020</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="9">
         <v>5300000</v>
@@ -1336,9 +1607,9 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1347,13 +1618,13 @@
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1364,15 +1635,15 @@
       </c>
       <c r="E4" s="5"/>
       <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1381,12 +1652,12 @@
       </c>
       <c r="E5" s="5"/>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1395,13 +1666,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1412,91 +1683,91 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1778,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1518,9 +1789,9 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1">
+    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1529,9 +1800,9 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1">
+    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1555,34 +1826,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10271D11-0342-4ADE-AC93-795747EE8A11}">
-  <dimension ref="A4:B5"/>
+  <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="F4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>35</v>
+      <c r="F5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="45">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="46">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="47">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="48">
+        <f>SUM(G7:G9)</f>
+        <v>2980000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{8E6C20CF-CD32-42D6-801D-9F02C47B44B9}"/>
@@ -1594,6 +1922,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C2C85-377E-44C0-AF06-9352B1C642E8}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="49">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="49">
+        <v>2600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB34AEF-059E-44D0-B638-C21A69458B7B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1601,7 +1981,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC1201-8F1A-4F25-8ADE-37FDC0C59CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B092DA7D-683E-41A4-8E39-7B1860AA77E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>에어컨 사전방문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트지 마감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거/목공/전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공휴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +372,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -644,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,18 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +757,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +848,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1262,7 +1298,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,74 +1308,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>46012</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>46013</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>46014</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>46015</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>46016</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>46017</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>46018</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1347,207 +1383,223 @@
       <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>46019</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>46020</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>46021</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>46022</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="60">
         <v>46023</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>46024</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="27">
         <v>46025</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22"/>
-      <c r="J9" s="2" t="s">
+      <c r="E9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="J9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>45661</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>45662</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>45663</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>45664</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>45665</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>45666</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>45667</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
+      <c r="J10" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="59" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>45668</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>45669</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>45670</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>45671</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>45672</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>45673</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>45674</v>
       </c>
+      <c r="J12" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>45675</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>45676</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>45677</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>45678</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>45679</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>45680</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>45681</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="57" t="s">
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>45682</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>45683</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="26">
         <v>45684</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <v>45685</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>45686</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <v>45687</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <v>45688</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="17" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="36" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1844,65 +1896,65 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>2730000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="46">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f>SUM(G7:G9)</f>
         <v>2980000</v>
       </c>
@@ -1936,34 +1988,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>2700000</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>2600000</v>
       </c>
     </row>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huj11\Desktop\집\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B092DA7D-683E-41A4-8E39-7B1860AA77E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BFD62-A184-41B3-87FB-9CECED3DEE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="마루" sheetId="3" r:id="rId3"/>
     <sheet name="도배" sheetId="5" r:id="rId4"/>
     <sheet name="전기" sheetId="4" r:id="rId5"/>
+    <sheet name="이사" sheetId="6" r:id="rId6"/>
+    <sheet name="입주청소" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -216,10 +218,6 @@
   </si>
   <si>
     <t>방</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가성비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +284,206 @@
   </si>
   <si>
     <t>공휴일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스이전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3339-4509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친절한 영동씨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9382-1880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스트전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백선빌더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5070-6740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한재인목수님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간접조명 사각60 아트월 석고부착 20, 실링팬보강 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8746-1205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8427-1469</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인건비 30/전선 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입등 구멍뚫고 바로 다는 단가 / 도배하고 달면 인건비 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전에 아람전기에서 했음 (40만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시우산업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 010-6822-2056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴라베어 아저씨 추천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가성비(개나리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가수원지업사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 조윤호 사장님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8487-5580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 도배왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다복도배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2435-1256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸레받이 퍼티포함 엄청 잘해줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 장짜기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lge.co.kr/lg-best-care/service-installation-removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람전기조명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5401-2147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상민이형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시이후 시간당 대기금 10만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수기 철거/이동/설치 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 철거/설치 불가능 이동만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워시타워 철거/설치 불가능 이동만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 이동만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비데 철거/이동 가능, 설치 별도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덕션 철거/이동 가능, 설치는 기사 불러서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수기 철거 타공 막아주는지 확인 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 장짜는 비용 알아봐야됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 3대장 입주청소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개미군단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이루다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해들임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9039-5989</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>042-365-5056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9172-5056</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,15 +996,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +1046,18 @@
     </xf>
     <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -939,8 +1140,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>515283</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67608</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>200521</xdr:rowOff>
     </xdr:to>
@@ -967,6 +1168,55 @@
         <a:xfrm>
           <a:off x="685800" y="838200"/>
           <a:ext cx="6687483" cy="3553321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>629312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86420055-3F3B-7F38-7F53-ABE137B3C94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="209550"/>
+          <a:ext cx="4744112" cy="6620799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1306,26 +1556,26 @@
     <col min="1" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>46012</v>
       </c>
@@ -1374,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1384,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>9</v>
@@ -1392,8 +1642,11 @@
       <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>46019</v>
       </c>
@@ -1406,7 +1659,7 @@
       <c r="D8" s="26">
         <v>46022</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="57">
         <v>46023</v>
       </c>
       <c r="F8" s="26">
@@ -1421,19 +1674,22 @@
       <c r="L8" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="57" t="s">
-        <v>57</v>
+      <c r="B9" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="21"/>
       <c r="J9" s="19" t="s">
@@ -1443,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>45661</v>
       </c>
@@ -1469,20 +1725,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
-        <v>59</v>
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="53" t="s">
-        <v>54</v>
+      <c r="D11" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>45668</v>
       </c>
@@ -1508,20 +1764,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>45675</v>
       </c>
@@ -1544,9 +1800,9 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>55</v>
+    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>37</v>
@@ -1561,11 +1817,11 @@
       <c r="F15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>45682</v>
       </c>
@@ -1588,19 +1844,33 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="58" t="s">
+    <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="35" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1884,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1925,7 @@
       <c r="D2" s="9">
         <v>5300000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="60">
         <v>5300000</v>
       </c>
     </row>
@@ -1668,7 +1938,9 @@
       <c r="D3" s="3">
         <v>2500000</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>2700000</v>
+      </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
@@ -1678,14 +1950,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <v>4000000</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>2980000</v>
+      </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -1771,7 +2045,9 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1864,7 +2140,7 @@
       </c>
       <c r="E23" s="18">
         <f>SUM(E2:E22)</f>
-        <v>5300000</v>
+        <v>10980000</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +2157,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1899,10 +2175,10 @@
       <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1930,7 +2206,7 @@
       <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="41">
         <v>150000</v>
       </c>
     </row>
@@ -1938,7 +2214,7 @@
       <c r="F8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="42">
         <v>2730000</v>
       </c>
     </row>
@@ -1946,15 +2222,15 @@
       <c r="F9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="43">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="44">
         <f>SUM(G7:G9)</f>
         <v>2980000</v>
       </c>
@@ -1975,48 +2251,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C2C85-377E-44C0-AF06-9352B1C642E8}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
       <c r="B5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <v>2700000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <v>2600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2027,17 +2323,226 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB34AEF-059E-44D0-B638-C21A69458B7B}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25FDF9-1A2C-47EC-9ABE-E6DB06A3AD0E}">
+  <dimension ref="I2:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I2" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="V12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{743186CF-C703-420F-A769-9DA1DB600207}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047A129-DA4D-4E6F-A6C8-C3AF9DBC48AA}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huj11\Desktop\집\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BFD62-A184-41B3-87FB-9CECED3DEE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BC65D-A657-4D5C-92DB-20D605FD6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>실 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이와이시스템에어컨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -279,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>철거/목공/전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공휴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,38 +411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추가금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1시이후 시간당 대기금 10만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수기 철거/이동/설치 불가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식세기 철거/설치 불가능 이동만 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워시타워 철거/설치 불가능 이동만 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TV 이동만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비데 철거/이동 가능, 설치 별도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덕션 철거/이동 가능, 설치는 기사 불러서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정수기 철거 타공 막아주는지 확인 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,6 +444,133 @@
   </si>
   <si>
     <t>010-9172-5056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KGB 유성익스프레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시이후 시간당 대기금 10만원 추가금
+인덕션 철거/이동 가능, 설치는 기사 불러서
+비데 철거/이동 가능, 설치 별도
+정수기 철거/이동/설치 불가능
+식세기 철거/설치 불가능 이동만 가능
+워시타워 철거/설치 불가능 이동만 가능
+TV 이동만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 5명 ( 몽골인 1명 포함)
+추가금 없음
+직원 4명 ( 남 3, 여 1)
+세탁기, 냉장고 철거/설치 가능
+현대해상보험 보상
+별도 약품처리 없음 (간단한 세척)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.31(토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.31(토)
+2.1(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙 익스프레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사의 명인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트 이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조은 이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.28 14시 방문예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.28 16시 방문예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.28 18시 방문예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 13시 방문예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라 익스프레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조은 이사 14시 방문견적
+퍼펙트 이사 16시 방문견적
+아라 익스프레스 16시 방문견적
+이사의 명인 18시 방문견적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙 익스프레스 13시 방문견적
+철거/목공/전기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주청소(?)
+D-DAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨 커버 마무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이와이시스템에어컨
+추가 비용 발생
+차단기 2만원
+전선 1m당 1.2만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초배시공
+거실 우물직각무몰딩 도배시공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[옵션]
+펜트리/드레스룸 탈거조립 45만원
+퍼티시공 40만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,9 +984,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,17 +1131,41 @@
     <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1191,7 +1299,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>629312</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>124749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1547,330 +1655,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>46012</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>46013</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>46014</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>46015</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>46016</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>46017</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>46018</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>46019</v>
+      </c>
+      <c r="B8" s="25">
+        <v>46020</v>
+      </c>
+      <c r="C8" s="25">
+        <v>46021</v>
+      </c>
+      <c r="D8" s="25">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="56">
+        <v>46023</v>
+      </c>
+      <c r="F8" s="25">
+        <v>46024</v>
+      </c>
+      <c r="G8" s="26">
+        <v>46025</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="J9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>45661</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45662</v>
+      </c>
+      <c r="C10" s="25">
+        <v>45663</v>
+      </c>
+      <c r="D10" s="25">
+        <v>45664</v>
+      </c>
+      <c r="E10" s="25">
+        <v>45665</v>
+      </c>
+      <c r="F10" s="25">
+        <v>45666</v>
+      </c>
+      <c r="G10" s="26">
+        <v>45667</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>45668</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45669</v>
+      </c>
+      <c r="C12" s="25">
+        <v>45670</v>
+      </c>
+      <c r="D12" s="25">
+        <v>45671</v>
+      </c>
+      <c r="E12" s="25">
+        <v>45672</v>
+      </c>
+      <c r="F12" s="25">
+        <v>45673</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45674</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>45675</v>
+      </c>
+      <c r="B14" s="25">
+        <v>45676</v>
+      </c>
+      <c r="C14" s="25">
+        <v>45677</v>
+      </c>
+      <c r="D14" s="25">
+        <v>45678</v>
+      </c>
+      <c r="E14" s="25">
+        <v>45679</v>
+      </c>
+      <c r="F14" s="25">
+        <v>45680</v>
+      </c>
+      <c r="G14" s="26">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>45682</v>
+      </c>
+      <c r="B16" s="25">
+        <v>45683</v>
+      </c>
+      <c r="C16" s="25">
+        <v>45684</v>
+      </c>
+      <c r="D16" s="25">
+        <v>45685</v>
+      </c>
+      <c r="E16" s="25">
+        <v>45686</v>
+      </c>
+      <c r="F16" s="25">
+        <v>45687</v>
+      </c>
+      <c r="G16" s="26">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>46019</v>
-      </c>
-      <c r="B8" s="26">
-        <v>46020</v>
-      </c>
-      <c r="C8" s="26">
-        <v>46021</v>
-      </c>
-      <c r="D8" s="26">
-        <v>46022</v>
-      </c>
-      <c r="E8" s="57">
-        <v>46023</v>
-      </c>
-      <c r="F8" s="26">
-        <v>46024</v>
-      </c>
-      <c r="G8" s="27">
-        <v>46025</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="J9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>45661</v>
-      </c>
-      <c r="B10" s="26">
-        <v>45662</v>
-      </c>
-      <c r="C10" s="26">
-        <v>45663</v>
-      </c>
-      <c r="D10" s="26">
-        <v>45664</v>
-      </c>
-      <c r="E10" s="26">
-        <v>45665</v>
-      </c>
-      <c r="F10" s="26">
-        <v>45666</v>
-      </c>
-      <c r="G10" s="27">
-        <v>45667</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>45668</v>
-      </c>
-      <c r="B12" s="26">
-        <v>45669</v>
-      </c>
-      <c r="C12" s="26">
-        <v>45670</v>
-      </c>
-      <c r="D12" s="26">
-        <v>45671</v>
-      </c>
-      <c r="E12" s="26">
-        <v>45672</v>
-      </c>
-      <c r="F12" s="26">
-        <v>45673</v>
-      </c>
-      <c r="G12" s="27">
-        <v>45674</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <v>45675</v>
-      </c>
-      <c r="B14" s="26">
-        <v>45676</v>
-      </c>
-      <c r="C14" s="26">
-        <v>45677</v>
-      </c>
-      <c r="D14" s="26">
-        <v>45678</v>
-      </c>
-      <c r="E14" s="26">
-        <v>45679</v>
-      </c>
-      <c r="F14" s="26">
-        <v>45680</v>
-      </c>
-      <c r="G14" s="27">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>45682</v>
-      </c>
-      <c r="B16" s="26">
-        <v>45683</v>
-      </c>
-      <c r="C16" s="26">
-        <v>45684</v>
-      </c>
-      <c r="D16" s="26">
-        <v>45685</v>
-      </c>
-      <c r="E16" s="26">
-        <v>45686</v>
-      </c>
-      <c r="F16" s="26">
-        <v>45687</v>
-      </c>
-      <c r="G16" s="27">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
         <v>78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1884,13 +2014,13 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
@@ -1898,34 +2028,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>46020</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8">
         <v>5300000</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="57">
         <v>5300000</v>
       </c>
     </row>
@@ -1942,15 +2072,15 @@
         <v>2700000</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1961,10 +2091,10 @@
         <v>2980000</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1978,7 +2108,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,10 +2122,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2046,7 +2176,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2126,19 +2256,19 @@
       <c r="D22" s="3">
         <v>1500000</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17">
+      <c r="A23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
         <f>SUM(D2:D22)</f>
         <v>18800000</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <f>SUM(E2:E22)</f>
         <v>10980000</v>
       </c>
@@ -2157,7 +2287,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2170,67 +2300,67 @@
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="59"/>
+      <c r="F4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="40">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="41">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="41">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="42">
-        <v>2730000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="44">
+      <c r="F10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="43">
         <f>SUM(G7:G9)</f>
         <v>2980000</v>
       </c>
@@ -2251,68 +2381,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C2C85-377E-44C0-AF06-9352B1C642E8}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>42</v>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>81</v>
+      <c r="B3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="45">
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>2600000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2338,83 +2481,83 @@
   <sheetData>
     <row r="5" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="s">
         <v>69</v>
-      </c>
-      <c r="N24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>74</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2429,63 +2572,131 @@
   <dimension ref="I2:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="9" style="1"/>
+    <col min="1" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="40.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I2" s="61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="I2" s="58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R5" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="R6" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="63">
         <v>1800000</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V7" s="1" t="s">
+      <c r="T6" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" s="63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
+      <c r="R7" s="63" t="s">
         <v>101</v>
       </c>
+      <c r="S7" s="63">
+        <v>1500000</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" s="63" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V8" s="1" t="s">
-        <v>100</v>
+      <c r="R8" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="63"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V9" s="1" t="s">
-        <v>96</v>
+      <c r="R9" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="63"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V10" s="1" t="s">
-        <v>97</v>
+      <c r="R10" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="63"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="V10" s="63" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V11" s="1" t="s">
-        <v>98</v>
+      <c r="R11" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" s="63"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="V12" s="1" t="s">
-        <v>99</v>
+      <c r="R12" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="63"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2502,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047A129-DA4D-4E6F-A6C8-C3AF9DBC48AA}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2513,31 +2724,31 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BC65D-A657-4D5C-92DB-20D605FD6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCB9BC-BA74-4CDE-9527-63B589375049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>중문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-DAY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -259,11 +255,6 @@
   <si>
     <t xml:space="preserve">
 (엄빠 생일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 설치
-(유진 경락)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -542,35 +533,76 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무빙 익스프레스 13시 방문견적
-철거/목공/전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입주청소(?)
-D-DAY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>에어컨 커버 마무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초배시공
+거실 우물직각무몰딩 도배시공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[옵션]
+펜트리/드레스룸 탈거조립 45만원
+퍼티시공 40만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라 익스프레스
+이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이와이시스템
+에어컨 설치
+(유진 경락)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.29, 1.30 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친환경세제 사용
+미순수, 편백나무, 키엘 세제
+피톤치드 서비스
+창호 외부 제외, 창틀 안쪽, 유리
+전등 분해, 욕실 배수구/환풍구 청소
+싱크대 서랍장 탈거 후 청소
+도배풀 최대한 깔끔하게 청소
+소요 시간 : 약 7시간
+계약금 받지 않음. A/S 해줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3대장 다음으로 후기 괜찮은 곳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토브홈케어
+010-3044-2222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴엘클린
+010-3451-2421</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마손청소
+010-8524-4627</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제이와이시스템에어컨
 추가 비용 발생
 차단기 2만원
-전선 1m당 1.2만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초배시공
-거실 우물직각무몰딩 도배시공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[옵션]
-펜트리/드레스룸 탈거조립 45만원
-퍼티시공 40만원</t>
+전선 1m당 1.2만원
+12m 추가 14.4만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,12 +1166,6 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1155,9 +1178,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1185,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1697,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1672,19 +1713,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1748,7 +1789,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>9</v>
@@ -1757,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1773,7 +1814,7 @@
       <c r="D8" s="25">
         <v>46022</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>46023</v>
       </c>
       <c r="F8" s="25">
@@ -1789,23 +1830,25 @@
         <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="A9" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>121</v>
+        <v>56</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="20"/>
       <c r="J9" s="18" t="s">
@@ -1842,13 +1885,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>57</v>
+      <c r="A11" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="49" t="s">
-        <v>52</v>
+      <c r="D11" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -1885,14 +1928,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>51</v>
+      <c r="G13" s="51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1919,14 +1962,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
-        <v>53</v>
+      <c r="A15" s="49" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
@@ -1935,8 +1978,8 @@
       <c r="F15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>54</v>
+      <c r="G15" s="51" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1963,44 +2006,34 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="54" t="s">
+      <c r="A17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="67" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>46054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
         <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2014,11 +2047,12 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -2030,33 +2064,33 @@
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>46020</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>124</v>
+      <c r="C2" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="D2" s="8">
         <v>5300000</v>
       </c>
-      <c r="E2" s="57">
-        <v>5300000</v>
+      <c r="E2" s="56">
+        <v>5444000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2072,15 +2106,15 @@
         <v>2700000</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2091,10 +2125,10 @@
         <v>2980000</v>
       </c>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2108,7 +2142,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2122,10 +2156,10 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2140,11 +2174,17 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>400000</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -2176,11 +2216,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>350000</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2260,17 +2302,17 @@
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16">
         <f>SUM(D2:D22)</f>
-        <v>18800000</v>
+        <v>19550000</v>
       </c>
       <c r="E23" s="17">
         <f>SUM(E2:E22)</f>
-        <v>10980000</v>
+        <v>11524000</v>
       </c>
     </row>
   </sheetData>
@@ -2300,67 +2342,67 @@
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="60"/>
+      <c r="F4" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>40</v>
+      <c r="F5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="35" t="s">
         <v>38</v>
       </c>
+      <c r="G6" s="36" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="40">
+      <c r="F7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="39">
         <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="41">
+        <v>35</v>
+      </c>
+      <c r="G8" s="40">
         <v>2730000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="42">
+        <v>36</v>
+      </c>
+      <c r="G9" s="41">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="F10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="42">
         <f>SUM(G7:G9)</f>
         <v>2980000</v>
       </c>
@@ -2396,66 +2438,66 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="44">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43">
         <v>2700000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="44">
+        <v>42</v>
+      </c>
+      <c r="C6" s="43">
         <v>2600000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="44">
+        <v>81</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="43">
         <v>3200000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="68" t="s">
-        <v>126</v>
+      <c r="B10" s="64" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2481,83 +2523,83 @@
   <sheetData>
     <row r="5" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
         <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2569,10 +2611,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25FDF9-1A2C-47EC-9ABE-E6DB06A3AD0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="I2:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2587,116 +2632,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I2" s="58" t="s">
-        <v>88</v>
+      <c r="I2" s="57" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R5" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="64" t="s">
+      <c r="R5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="R6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="60">
+        <v>1800000</v>
+      </c>
+      <c r="T6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="U6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
+      <c r="R7" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="60">
+        <v>1500000</v>
+      </c>
+      <c r="T7" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="U5" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="64" t="s">
+      <c r="U7" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="V7" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R8" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="60"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R9" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="60"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R10" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="68"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R11" s="60" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="R6" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" s="63">
-        <v>1800000</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="63" t="s">
+      <c r="S11" s="60"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R12" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V6" s="63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
-      <c r="R7" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="63">
-        <v>1500000</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="U7" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" s="63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R8" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R9" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="63"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63" t="s">
+      <c r="S12" s="60"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="60" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R10" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="63"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" s="63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R11" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R12" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="S12" s="63"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2711,45 +2756,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047A129-DA4D-4E6F-A6C8-C3AF9DBC48AA}">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>100</v>
       </c>
+      <c r="H10" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="F11" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="F12" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="F13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCB9BC-BA74-4CDE-9527-63B589375049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2522C3-476B-4057-9753-49924723F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
     <sheet name="예산" sheetId="1" r:id="rId2"/>
     <sheet name="마루" sheetId="3" r:id="rId3"/>
     <sheet name="도배" sheetId="5" r:id="rId4"/>
-    <sheet name="전기" sheetId="4" r:id="rId5"/>
+    <sheet name="전기_목공" sheetId="4" r:id="rId5"/>
     <sheet name="이사" sheetId="6" r:id="rId6"/>
     <sheet name="입주청소" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,38 +270,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에스이전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3339-4509</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>친절한 영동씨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9382-1880</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>저스트전기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>월드전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백선빌더</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5070-6740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미래전기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,30 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>간접조명 사각60 아트월 석고부착 20, 실링팬보강 서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8746-1205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8427-1469</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인건비 30/전선 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매입등 구멍뚫고 바로 다는 단가 / 도배하고 달면 인건비 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전에 아람전기에서 했음 (40만)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -358,14 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기 조윤호 사장님</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8487-5580</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아빠는 도배왕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,14 +327,6 @@
   </si>
   <si>
     <t>https://www.lge.co.kr/lg-best-care/service-installation-removal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가람전기조명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5401-2147</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -519,10 +451,6 @@
   </si>
   <si>
     <t>아라 익스프레스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1(일)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -603,6 +531,136 @@
 차단기 2만원
 전선 1m당 1.2만원
 12m 추가 14.4만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토브홈케어
+입주청소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드스토리
+마루 시공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 50만원 입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 10만원 입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종 시공 어렵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 28
+자재비 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 33
+자재비 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 30
+자재비 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친절한 영동씨
+010-9382-1880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스이전기
+010-3339-4509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드전기
+010-8746-1205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백선빌더
+010-5070-6740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 조윤호 사장님
+010-8487-5580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람전기조명
+010-5401-2147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>까대기 작업 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기
+010-8427-1469</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간접조명 사각 60
+아트월 석고부착 20
+실링팬보강 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비 별도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 9일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 30일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 14일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 30일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 31일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.31(일)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,24 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1187,12 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,6 +1241,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1291,7 +1361,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67608</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>200521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1696,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1713,313 +1783,321 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="15">
         <v>46012</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <v>46013</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>46014</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>46015</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <v>46016</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="16">
         <v>46017</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <v>46018</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>46019</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="19">
         <v>46020</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>46021</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>46022</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="49">
         <v>46023</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="19">
         <v>46024</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="20">
         <v>46025</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="14"/>
+      <c r="J9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>45661</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45662</v>
+      </c>
+      <c r="C10" s="19">
+        <v>45663</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45664</v>
+      </c>
+      <c r="E10" s="19">
+        <v>45665</v>
+      </c>
+      <c r="F10" s="19">
+        <v>45666</v>
+      </c>
+      <c r="G10" s="20">
+        <v>45667</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="J9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>45661</v>
-      </c>
-      <c r="B10" s="25">
-        <v>45662</v>
-      </c>
-      <c r="C10" s="25">
-        <v>45663</v>
-      </c>
-      <c r="D10" s="25">
-        <v>45664</v>
-      </c>
-      <c r="E10" s="25">
-        <v>45665</v>
-      </c>
-      <c r="F10" s="25">
-        <v>45666</v>
-      </c>
-      <c r="G10" s="26">
-        <v>45667</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>45668</v>
+      </c>
+      <c r="B12" s="19">
+        <v>45669</v>
+      </c>
+      <c r="C12" s="19">
+        <v>45670</v>
+      </c>
+      <c r="D12" s="19">
+        <v>45671</v>
+      </c>
+      <c r="E12" s="19">
+        <v>45672</v>
+      </c>
+      <c r="F12" s="19">
+        <v>45673</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45674</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>45675</v>
+      </c>
+      <c r="B14" s="19">
+        <v>45676</v>
+      </c>
+      <c r="C14" s="19">
+        <v>45677</v>
+      </c>
+      <c r="D14" s="19">
+        <v>45678</v>
+      </c>
+      <c r="E14" s="19">
+        <v>45679</v>
+      </c>
+      <c r="F14" s="19">
+        <v>45680</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>45668</v>
-      </c>
-      <c r="B12" s="25">
-        <v>45669</v>
-      </c>
-      <c r="C12" s="25">
-        <v>45670</v>
-      </c>
-      <c r="D12" s="25">
-        <v>45671</v>
-      </c>
-      <c r="E12" s="25">
-        <v>45672</v>
-      </c>
-      <c r="F12" s="25">
-        <v>45673</v>
-      </c>
-      <c r="G12" s="26">
-        <v>45674</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>45675</v>
-      </c>
-      <c r="B14" s="25">
-        <v>45676</v>
-      </c>
-      <c r="C14" s="25">
-        <v>45677</v>
-      </c>
-      <c r="D14" s="25">
-        <v>45678</v>
-      </c>
-      <c r="E14" s="25">
-        <v>45679</v>
-      </c>
-      <c r="F14" s="25">
-        <v>45680</v>
-      </c>
-      <c r="G14" s="26">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>45682</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="19">
         <v>45683</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="19">
         <v>45684</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>45685</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="19">
         <v>45686</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="19">
         <v>45687</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>45688</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="67" t="s">
-        <v>122</v>
+      <c r="B17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2027,13 +2105,13 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2046,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2062,17 +2140,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2080,31 +2160,31 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="72">
         <v>46020</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3">
         <v>5300000</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="50">
         <v>5444000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D3" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2700000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -2113,17 +2193,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2980000</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
       <c r="H4" t="s">
         <v>23</v>
       </c>
@@ -2132,29 +2206,39 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>400000</v>
+      </c>
+      <c r="E5" s="73">
+        <v>400000</v>
+      </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>340000</v>
+      </c>
+      <c r="E6" s="73">
+        <v>340000</v>
+      </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
@@ -2163,62 +2247,76 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>800000</v>
+      </c>
+      <c r="E7" s="73">
+        <v>800000</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>400000</v>
+        <v>2830000</v>
+      </c>
+      <c r="E8" s="73">
+        <v>2830000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2700000</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3">
         <v>350000</v>
@@ -2227,42 +2325,42 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
@@ -2271,48 +2369,60 @@
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D20" s="3">
-        <v>500000</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>450000</v>
+      </c>
+      <c r="E20" s="73">
+        <v>450000</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>1450000</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1450000</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3">
         <v>1500000</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10">
         <f>SUM(D2:D22)</f>
-        <v>19550000</v>
-      </c>
-      <c r="E23" s="17">
+        <v>16920000</v>
+      </c>
+      <c r="E23" s="11">
         <f>SUM(E2:E22)</f>
-        <v>11524000</v>
+        <v>14414000</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2436,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10271D11-0342-4ADE-AC93-795747EE8A11}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2344,67 +2457,65 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="39">
-        <v>150000</v>
-      </c>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="34">
         <v>2730000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="35">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="36">
         <f>SUM(G7:G9)</f>
-        <v>2980000</v>
+        <v>2830000</v>
       </c>
     </row>
   </sheetData>
@@ -2437,67 +2548,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>77</v>
+      <c r="C3" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <v>2700000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>2600000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="43">
+        <v>66</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="37">
         <v>3200000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="64" t="s">
-        <v>121</v>
+      <c r="B10" s="58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2508,99 +2619,184 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB34AEF-059E-44D0-B638-C21A69458B7B}">
-  <dimension ref="C5:O35"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="E5:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="12:16" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L10" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L11" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="68">
+        <v>800000</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="68"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L13" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L14" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="74">
+        <v>340000</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L15" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="68">
+        <v>600000</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L16" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="68">
+        <v>400000</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="L17" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="68">
+        <v>430000</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="L18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="68"/>
+      <c r="N18" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="L20" s="69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L21" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" t="s">
-        <v>72</v>
-      </c>
+      <c r="M21" s="74">
+        <v>800000</v>
+      </c>
+      <c r="N21" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="58"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E30" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2617,7 +2813,7 @@
   <dimension ref="I2:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2632,116 +2828,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="R6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="54">
+        <v>1800000</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
+      <c r="R7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="54">
+        <v>1500000</v>
+      </c>
+      <c r="T7" s="52" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R5" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="R6" s="60" t="s">
+      <c r="U7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R8" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R9" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R10" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="60"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R11" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R12" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="60">
-        <v>1800000</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="V6" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
-      <c r="R7" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" s="60">
-        <v>1500000</v>
-      </c>
-      <c r="T7" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R8" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R9" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" s="60"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R10" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="S10" s="68"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="V10" s="68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R11" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" s="60"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R12" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="S12" s="60"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="60" t="s">
-        <v>115</v>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2952,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047A129-DA4D-4E6F-A6C8-C3AF9DBC48AA}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2774,84 +2973,84 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="61" t="s">
+      <c r="G10" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="F11" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="F11" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>127</v>
+      <c r="J11" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="F12" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="F12" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="F13" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2522C3-476B-4057-9753-49924723F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415020C4-1D36-4079-8181-E140D72E4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="145">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,6 +661,16 @@
   </si>
   <si>
     <t>1.31(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비 별도
+ps101 : 17.3만원
+ps170 : 6.8만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1242,12 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,7 +1261,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,6 +1281,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1766,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2093,7 +2103,7 @@
         <v>101</v>
       </c>
       <c r="E17" s="47"/>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="64" t="s">
         <v>114</v>
       </c>
       <c r="G17" s="59" t="s">
@@ -2124,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2149,10 +2159,10 @@
       <c r="C1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="69" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2160,7 +2170,7 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="70">
         <v>46020</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -2173,18 +2183,20 @@
         <v>5444000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
+      <c r="C3" s="63" t="s">
+        <v>143</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>241000</v>
+      </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="D5" s="3">
         <v>400000</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="71">
         <v>400000</v>
       </c>
       <c r="H5" t="s">
@@ -2236,7 +2248,7 @@
       <c r="D6" s="3">
         <v>340000</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="71">
         <v>340000</v>
       </c>
       <c r="H6" t="s">
@@ -2257,7 +2269,7 @@
       <c r="D7" s="3">
         <v>800000</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="71">
         <v>800000</v>
       </c>
     </row>
@@ -2274,7 +2286,7 @@
       <c r="D8" s="3">
         <v>2830000</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="71">
         <v>2830000</v>
       </c>
     </row>
@@ -2378,7 +2390,7 @@
       <c r="D20" s="3">
         <v>450000</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="71">
         <v>450000</v>
       </c>
     </row>
@@ -2395,7 +2407,7 @@
       <c r="D21" s="3">
         <v>1450000</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="71">
         <v>1450000</v>
       </c>
     </row>
@@ -2422,7 +2434,7 @@
       </c>
       <c r="E23" s="11">
         <f>SUM(E2:E22)</f>
-        <v>14414000</v>
+        <v>14655000</v>
       </c>
     </row>
   </sheetData>
@@ -2460,10 +2472,10 @@
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2537,7 +2549,7 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2604,6 +2616,9 @@
       </c>
       <c r="B12" t="s">
         <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2663,7 +2678,7 @@
       <c r="L10" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="68"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="2" t="s">
         <v>119</v>
       </c>
@@ -2674,7 +2689,7 @@
       <c r="L11" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="66">
         <v>800000</v>
       </c>
       <c r="N11" s="2"/>
@@ -2689,7 +2704,7 @@
       <c r="L12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="68"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="2"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -2704,13 +2719,13 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="72">
         <v>340000</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="65" t="s">
         <v>120</v>
       </c>
       <c r="O14" s="21">
@@ -2724,7 +2739,7 @@
       <c r="L15" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="66">
         <v>600000</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2737,7 +2752,7 @@
       <c r="L16" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="66">
         <v>400000</v>
       </c>
       <c r="N16" s="63" t="s">
@@ -2750,7 +2765,7 @@
       <c r="L17" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="66">
         <v>430000</v>
       </c>
       <c r="N17" s="63" t="s">
@@ -2763,7 +2778,7 @@
       <c r="L18" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="68"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="63" t="s">
         <v>133</v>
       </c>
@@ -2771,18 +2786,18 @@
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="74">
+      <c r="M21" s="72">
         <v>800000</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="65" t="s">
         <v>135</v>
       </c>
       <c r="O21" s="21">
@@ -3024,7 +3039,7 @@
       <c r="G11" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="65" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="21" t="s">

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415020C4-1D36-4079-8181-E140D72E4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206221B-A49D-4D44-AF70-3B9ABF07AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,151 +526,162 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>토브홈케어
+입주청소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 10만원 입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종 시공 어렵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 28
+자재비 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 33
+자재비 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당 30
+자재비 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친절한 영동씨
+010-9382-1880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스이전기
+010-3339-4509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드전기
+010-8746-1205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백선빌더
+010-5070-6740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 조윤호 사장님
+010-8487-5580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람전기조명
+010-5401-2147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>까대기 작업 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기
+010-8427-1469</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간접조명 사각 60
+아트월 석고부착 20
+실링팬보강 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비 별도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 9일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 30일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 14일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 30일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 31일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.31(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비 별도
+ps101 : 17.3만원
+ps170 : 6.8만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트월 철거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드스토리
+장판,걸레받이 철거
+마루 시공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제이와이시스템에어컨
 추가 비용 발생
 차단기 2만원
 전선 1m당 1.2만원
-12m 추가 14.4만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토브홈케어
-입주청소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우드스토리
-마루 시공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 50만원 입금완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 10만원 입금완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종 시공 어렵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일당 28
-자재비 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일당 33
-자재비 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일당 30
-자재비 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>친절한 영동씨
-010-9382-1880</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에스이전기
-010-3339-4509</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드전기
-010-8746-1205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백선빌더
-010-5070-6740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 조윤호 사장님
-010-8487-5580</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가람전기조명
-010-5401-2147</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>까대기 작업 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기
-010-8427-1469</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>간접조명 사각 60
-아트월 석고부착 20
-실링팬보강 서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자재비 별도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월 9일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월 30일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월 14일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월 30일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월 31일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.31(일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자재비 별도
-ps101 : 17.3만원
-ps170 : 6.8만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감</t>
+12m 추가 14.4만원
+잔금 입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 50만원 입금완료
+장판,걸레받이 철거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트월만 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1788,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1932,7 @@
         <v>105</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
@@ -2003,12 +2014,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>49</v>
@@ -2104,7 +2115,7 @@
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="59" t="s">
         <v>104</v>
@@ -2135,7 +2146,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2166,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2185,7 @@
         <v>46020</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3">
         <v>5300000</v>
@@ -2189,7 +2200,7 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
@@ -2222,14 +2233,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D5" s="3">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="E5" s="71">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -2240,10 +2253,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3">
         <v>340000</v>
@@ -2263,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
@@ -2273,21 +2286,21 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="3">
-        <v>2830000</v>
+        <v>2980000</v>
       </c>
       <c r="E8" s="71">
-        <v>2830000</v>
+        <v>2980000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2382,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3">
         <v>450000</v>
@@ -2399,10 +2412,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3">
         <v>1450000</v>
@@ -2430,11 +2443,11 @@
       <c r="C23" s="9"/>
       <c r="D23" s="10">
         <f>SUM(D2:D22)</f>
-        <v>16920000</v>
+        <v>17020000</v>
       </c>
       <c r="E23" s="11">
         <f>SUM(E2:E22)</f>
-        <v>14655000</v>
+        <v>14755000</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2467,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2503,7 +2516,9 @@
       <c r="F7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="33">
+        <v>150000</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="13" t="s">
@@ -2527,7 +2542,7 @@
       </c>
       <c r="G10" s="36">
         <f>SUM(G7:G9)</f>
-        <v>2830000</v>
+        <v>2980000</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2633,7 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2676,18 +2691,18 @@
     </row>
     <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L10" s="63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M10" s="66"/>
       <c r="N10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L11" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M11" s="66">
         <v>800000</v>
@@ -2697,7 +2712,7 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="12:16" x14ac:dyDescent="0.3">
@@ -2711,7 +2726,7 @@
     </row>
     <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L13" s="63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="2"/>
@@ -2720,56 +2735,56 @@
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L14" s="65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M14" s="72">
         <v>340000</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O14" s="21">
         <v>1.9</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L15" s="63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M15" s="66">
         <v>600000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L16" s="63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M16" s="66">
         <v>400000</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L17" s="63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M17" s="66">
         <v>430000</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M18" s="66"/>
       <c r="N18" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
       <c r="L20" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
@@ -2798,13 +2813,13 @@
         <v>800000</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O21" s="21">
         <v>1.9</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
@@ -2927,7 +2942,7 @@
       <c r="S10" s="60"/>
       <c r="T10" s="61"/>
       <c r="U10" s="62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V10" s="60" t="s">
         <v>96</v>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206221B-A49D-4D44-AF70-3B9ABF07AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A9B59-CC49-4B42-B1E1-652D19F78226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="150">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,19 +310,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다복도배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2435-1256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>걸레받이 퍼티포함 엄청 잘해줌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식세기 장짜기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -473,11 +461,6 @@
     <t>[옵션]
 펜트리/드레스룸 탈거조립 45만원
 퍼티시공 40만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아라 익스프레스
-이사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -619,10 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자재비 별도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1월 9일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -644,12 +623,6 @@
   </si>
   <si>
     <t>1.31(일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자재비 별도
-ps101 : 17.3만원
-ps170 : 6.8만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -682,6 +655,50 @@
   </si>
   <si>
     <t>아트월만 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비
+ps101 : 17.3만원
+ps170 : 6.8만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공비 : 34만원
+자재비 : 13.23만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실링팬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다복도배
+010-2435-1256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고 장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수기설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라 익스프레스 이사
+정수기 철거(오전 8-10시)
+정수기 설치(오후 3시 이후)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문당일 결제예정
+철거 : 3.4만원
+설치 : 4.9만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1058,6 +1075,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1070,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1327,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,21 +1464,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>629312</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>124749</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>543958</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86420055-3F3B-7F38-7F53-ABE137B3C94C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8C916B-4017-27A2-1A30-EE510E318CCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,8 +1494,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="209550"/>
-          <a:ext cx="4744112" cy="6620799"/>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="7401958" cy="2353003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553484</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211C4571-0628-94FD-FA3C-FC7C78CFE23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3038475"/>
+          <a:ext cx="7411484" cy="1790950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1797,8 +1880,8 @@
     <col min="2" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1889,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1921,18 +2004,18 @@
         <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
@@ -1974,9 +2057,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="42" t="s">
@@ -2015,11 +2096,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>49</v>
@@ -2100,7 +2183,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
@@ -2111,14 +2194,14 @@
         <v>15</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2143,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2168,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>19</v>
@@ -2185,7 +2268,7 @@
         <v>46020</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3">
         <v>5300000</v>
@@ -2200,7 +2283,7 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
@@ -2233,10 +2316,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3">
         <v>350000</v>
@@ -2248,21 +2331,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="D6" s="3">
-        <v>340000</v>
+        <v>472300</v>
       </c>
       <c r="E6" s="71">
-        <v>340000</v>
+        <v>472300</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -2276,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
@@ -2286,73 +2369,95 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>41565</v>
+      </c>
+      <c r="E8" s="71">
+        <v>41565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="3">
         <v>2980000</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E9" s="71">
         <v>2980000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
-        <v>2500000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="D10" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E11" s="71">
+        <v>83000</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>350000</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
+      <c r="A13" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3">
-        <v>350000</v>
+        <v>1000000</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>1500000</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2384,70 +2489,59 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E19" s="71">
+        <v>450000</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3">
-        <v>450000</v>
+        <v>1450000</v>
       </c>
       <c r="E20" s="71">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="3">
         <v>1450000</v>
       </c>
-      <c r="E21" s="71">
-        <v>1450000</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3">
-        <v>1500000</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10">
-        <f>SUM(D2:D22)</f>
-        <v>17020000</v>
-      </c>
-      <c r="E23" s="11">
-        <f>SUM(E2:E22)</f>
-        <v>14755000</v>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
+        <f>SUM(D2:D21)</f>
+        <v>18476865</v>
+      </c>
+      <c r="E22" s="11">
+        <f>SUM(E2:E21)</f>
+        <v>15011865</v>
       </c>
     </row>
   </sheetData>
@@ -2561,87 +2655,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C2C85-377E-44C0-AF06-9352B1C642E8}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C7" s="66">
+        <v>2700000</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="37">
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="66">
+        <v>2600000</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="37">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="37">
+      <c r="C9" s="66">
         <v>3200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D9" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2655,7 +2782,7 @@
   <dimension ref="E5:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2677,32 +2804,32 @@
         <v>18</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N9" s="55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O9" s="55" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L10" s="63" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M10" s="66"/>
       <c r="N10" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L11" s="63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M11" s="66">
         <v>800000</v>
@@ -2712,7 +2839,7 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="12:16" x14ac:dyDescent="0.3">
@@ -2726,7 +2853,7 @@
     </row>
     <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L13" s="63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="2"/>
@@ -2735,56 +2862,56 @@
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L14" s="65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M14" s="72">
         <v>340000</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O14" s="21">
         <v>1.9</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L15" s="63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M15" s="66">
         <v>600000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L16" s="63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M16" s="66">
         <v>400000</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L17" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M17" s="66">
         <v>430000</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -2795,14 +2922,14 @@
       </c>
       <c r="M18" s="66"/>
       <c r="N18" s="63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
       <c r="L20" s="67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
@@ -2813,13 +2940,13 @@
         <v>800000</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O21" s="21">
         <v>1.9</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
@@ -2842,8 +2969,8 @@
   </sheetPr>
   <dimension ref="I2:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2859,7 +2986,7 @@
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I2" s="51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
@@ -2867,107 +2994,107 @@
         <v>18</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="V5" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
       <c r="R6" s="54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S6" s="54">
         <v>1800000</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U6" s="54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V6" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
       <c r="R7" s="54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S7" s="54">
         <v>1500000</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U7" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="54" t="s">
         <v>88</v>
-      </c>
-      <c r="V7" s="54" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="9:22" x14ac:dyDescent="0.3">
       <c r="R8" s="54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S8" s="54"/>
       <c r="T8" s="52"/>
       <c r="U8" s="53"/>
       <c r="V8" s="54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="9:22" x14ac:dyDescent="0.3">
       <c r="R9" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="52"/>
       <c r="U9" s="53"/>
       <c r="V9" s="54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="9:22" x14ac:dyDescent="0.3">
       <c r="R10" s="60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S10" s="60"/>
       <c r="T10" s="61"/>
       <c r="U10" s="62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="V10" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="9:22" x14ac:dyDescent="0.3">
       <c r="R11" s="54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S11" s="54"/>
       <c r="T11" s="52"/>
       <c r="U11" s="53"/>
       <c r="V11" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="9:22" x14ac:dyDescent="0.3">
       <c r="R12" s="54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S12" s="54"/>
       <c r="T12" s="52"/>
       <c r="U12" s="53"/>
       <c r="V12" s="54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3003,31 +3130,31 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3035,38 +3162,38 @@
         <v>18</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
       <c r="F11" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="F12" s="42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="63"/>
@@ -3075,7 +3202,7 @@
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="F13" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="63"/>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A9B59-CC49-4B42-B1E1-652D19F78226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083722E7-968E-4D91-91BB-C29FB60BEF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="28680" yWindow="4500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
     <sheet name="예산" sheetId="1" r:id="rId2"/>
-    <sheet name="마루" sheetId="3" r:id="rId3"/>
-    <sheet name="도배" sheetId="5" r:id="rId4"/>
-    <sheet name="전기_목공" sheetId="4" r:id="rId5"/>
-    <sheet name="이사" sheetId="6" r:id="rId6"/>
-    <sheet name="입주청소" sheetId="7" r:id="rId7"/>
+    <sheet name="식세기장" sheetId="8" r:id="rId3"/>
+    <sheet name="마루" sheetId="3" r:id="rId4"/>
+    <sheet name="도배" sheetId="5" r:id="rId5"/>
+    <sheet name="전기_목공" sheetId="4" r:id="rId6"/>
+    <sheet name="이사" sheetId="6" r:id="rId7"/>
+    <sheet name="입주청소" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="160">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -699,6 +700,47 @@
     <t>방문당일 결제예정
 철거 : 3.4만원
 설치 : 4.9만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목공/전기
+도시가스 철거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀빠이 집수리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 장 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원상복구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현이네홈케어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더원매직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복구, 설치 동시진행 시 만원 할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘카페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱크대 아저씨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 말에 일정 밀렸으므로 가급적 1~2주 전에 연락</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,19 +1365,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,7 +1928,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1937,7 @@
     <col min="2" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2064,8 +2121,8 @@
         <v>51</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="21" t="s">
-        <v>46</v>
+      <c r="F11" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -2141,19 +2198,11 @@
       <c r="A15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="45" t="s">
@@ -2187,12 +2236,8 @@
       <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="56" t="s">
         <v>98</v>
       </c>
@@ -2228,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2408,7 +2453,7 @@
       <c r="D10" s="3">
         <v>2700000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="71">
         <v>2700000</v>
       </c>
     </row>
@@ -2554,6 +2599,191 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6269C661-8E84-49E6-9E10-7A8202BDFF7E}">
+  <dimension ref="B5:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="81">
+        <v>280000</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="83"/>
+      <c r="C8" s="81">
+        <v>260000</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="81">
+        <v>300000</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="83"/>
+      <c r="C10" s="81">
+        <v>300000</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="81">
+        <v>230000</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="83"/>
+      <c r="C12" s="81">
+        <v>130000</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="81">
+        <v>150000</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="83"/>
+      <c r="C14" s="81">
+        <v>160000</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="83"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10271D11-0342-4ADE-AC93-795747EE8A11}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2579,10 +2809,10 @@
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2653,12 +2883,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C2C85-377E-44C0-AF06-9352B1C642E8}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2715,25 +2948,27 @@
       <c r="B7" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="72">
         <v>2700000</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="77">
+        <v>1.23</v>
+      </c>
       <c r="F7" s="77"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="66">
+      <c r="B8" s="79"/>
+      <c r="C8" s="72">
         <v>2600000</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -2742,7 +2977,7 @@
       <c r="C9" s="66">
         <v>3200000</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="74" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="12"/>
@@ -2755,7 +2990,7 @@
         <v>144</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="74" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2774,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB34AEF-059E-44D0-B638-C21A69458B7B}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2962,14 +3197,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25FDF9-1A2C-47EC-9ABE-E6DB06A3AD0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="I2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3107,7 +3342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047A129-DA4D-4E6F-A6C8-C3AF9DBC48AA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083722E7-968E-4D91-91BB-C29FB60BEF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC67273-9843-47A5-8B6F-555607FEEE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="28680" yWindow="4500" windowWidth="29040" windowHeight="15720" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="163">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,7 +740,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1월 말에 일정 밀렸으므로 가급적 1~2주 전에 연락</t>
+    <t>1.10 토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇청소기 장 : 19만원
+광파오븐 : 테두리 마감 - 금액 확인 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 : 16만원
+철거 : 15만원
+로청장 : 19만원
+광파오븐장 : ?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식세기 장 설치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,31 +1384,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,7 +2146,9 @@
       <c r="F11" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="85" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -2273,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2472,44 +2496,46 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="63" t="s">
+        <v>161</v>
+      </c>
       <c r="D12" s="3">
         <v>350000</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="12"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>1000000</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
+      <c r="A14" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>1500000</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2603,7 +2629,7 @@
   <dimension ref="B5:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2641,127 +2667,135 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="76">
         <v>280000</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="81">
+      <c r="B8" s="79"/>
+      <c r="C8" s="76">
         <v>260000</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="76">
         <v>300000</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="83"/>
-      <c r="C10" s="81">
+      <c r="B10" s="79"/>
+      <c r="C10" s="76">
         <v>300000</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="76">
         <v>230000</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
-      <c r="C12" s="81">
-        <v>130000</v>
-      </c>
-      <c r="D12" s="82" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="76">
+        <v>190000</v>
+      </c>
+      <c r="D12" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="76">
         <v>150000</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80" t="s">
+      <c r="E13" s="78" t="s">
         <v>159</v>
       </c>
+      <c r="F13" s="84" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="81">
+      <c r="B14" s="79"/>
+      <c r="C14" s="76">
         <v>160000</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
@@ -2771,12 +2805,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2809,10 +2837,10 @@
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2945,30 +2973,30 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="72">
         <v>2700000</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="82">
         <v>1.23</v>
       </c>
-      <c r="F7" s="77"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="79"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="72">
         <v>2600000</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC67273-9843-47A5-8B6F-555607FEEE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BE679-3BA5-4B95-86F1-8FE0ADA248A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4500" windowWidth="29040" windowHeight="15720" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -659,12 +659,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자재비
-ps101 : 17.3만원
-ps170 : 6.8만원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시공비 : 34만원
 자재비 : 13.23만원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -732,20 +726,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맘카페</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>싱크대 아저씨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.10 토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로봇청소기 장 : 19만원
-광파오븐 : 테두리 마감 - 금액 확인 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -757,6 +742,22 @@
   </si>
   <si>
     <t>식세기 장 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘카페 두배로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇청소기 장 : 19만원
+색상 : 영림 174 (우드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재비
+ps101 : 17.3만원
+ps170 : 6.8만원
+영림174(하부장)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,40 +1382,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2144,10 +2139,10 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2270,7 +2265,7 @@
         <v>109</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2297,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2346,13 +2341,13 @@
         <v>5444000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="63" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
@@ -2408,7 +2403,7 @@
         <v>129</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3">
         <v>472300</v>
@@ -2440,7 +2435,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2"/>
@@ -2483,11 +2478,11 @@
     </row>
     <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3">
         <v>83000</v>
@@ -2498,11 +2493,11 @@
     </row>
     <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3">
         <v>350000</v>
@@ -2518,7 +2513,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -2667,135 +2662,129 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="74">
+        <v>280000</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="74">
+        <v>260000</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="76">
-        <v>280000</v>
-      </c>
-      <c r="D7" s="77" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="79"/>
-      <c r="C8" s="76">
-        <v>260000</v>
-      </c>
-      <c r="D8" s="77" t="s">
+      <c r="C9" s="74">
+        <v>300000</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="78" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="78"/>
+      <c r="C10" s="74">
+        <v>300000</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="76">
-        <v>300000</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="79"/>
-      <c r="C10" s="76">
-        <v>300000</v>
-      </c>
-      <c r="D10" s="77" t="s">
+      <c r="C11" s="74">
+        <v>230000</v>
+      </c>
+      <c r="D11" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="76">
-        <v>230000</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="78"/>
+      <c r="C12" s="74">
+        <v>190000</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="74">
+        <v>150000</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="78"/>
+      <c r="C14" s="74">
+        <v>160000</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="77" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="76">
-        <v>190000</v>
-      </c>
-      <c r="D12" s="77" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="76">
-        <v>150000</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="79"/>
-      <c r="C14" s="76">
-        <v>160000</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="79"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
@@ -2805,6 +2794,12 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2979,7 +2974,7 @@
       <c r="C7" s="72">
         <v>2700000</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="82">
@@ -2992,7 +2987,7 @@
       <c r="C8" s="72">
         <v>2600000</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="83"/>
@@ -3005,7 +3000,7 @@
       <c r="C9" s="66">
         <v>3200000</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="12"/>
@@ -3015,10 +3010,10 @@
     </row>
     <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="12" t="s">

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BE679-3BA5-4B95-86F1-8FE0ADA248A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FB796-A00D-4943-8CB0-985B9E52ED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="169">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -510,11 +510,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>토브홈케어
-입주청소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>계약금 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -685,12 +680,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아라 익스프레스 이사
-정수기 철거(오전 8-10시)
-정수기 설치(오후 3시 이후)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>방문당일 결제예정
 철거 : 3.4만원
 설치 : 4.9만원</t>
@@ -734,13 +723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>설치 : 16만원
-철거 : 15만원
-로청장 : 19만원
-광파오븐장 : ?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>식세기 장 설치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -751,13 +733,59 @@
   <si>
     <t>로봇청소기 장 : 19만원
 색상 : 영림 174 (우드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 : 16만원
+로청장 : 19만원
+광파오븐장 : 서비스
+철거 : 15만원
+오븐장이전설치 : 10만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라 익스프레스 이사
+정수기 철거(오전 8-10시)
+정수기 설치(오후 3시 이후)
+오븐장 이전설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱크대 상부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱크대 하부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영림 174</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자재비
 ps101 : 17.3만원
 ps170 : 6.8만원
-영림174(하부장)</t>
+싱크대 상부장(smt01) : 2.8875만원
+싱크대 하부장(영림174)+안방문(PS101) : 14.5만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토브홈케어
+입주청소
+로봇청소기 직배수 설치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1397,20 +1425,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1944,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1954,7 +1982,7 @@
     <col min="2" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2089,7 +2117,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
@@ -2139,10 +2167,10 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2178,7 +2206,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>49</v>
@@ -2251,7 +2279,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
@@ -2262,10 +2290,10 @@
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="64" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2292,15 +2320,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
@@ -2332,7 +2360,7 @@
         <v>46020</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3">
         <v>5300000</v>
@@ -2341,19 +2369,19 @@
         <v>5444000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="63" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
       </c>
       <c r="E3" s="5">
-        <v>241000</v>
+        <v>414875</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -2380,10 +2408,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3">
         <v>350000</v>
@@ -2400,10 +2428,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3">
         <v>472300</v>
@@ -2423,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
@@ -2435,7 +2463,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2"/>
@@ -2451,10 +2479,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3">
         <v>2980000</v>
@@ -2478,11 +2506,11 @@
     </row>
     <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3">
         <v>83000</v>
@@ -2493,16 +2521,18 @@
     </row>
     <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3">
         <v>350000</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>350000</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -2513,7 +2543,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2"/>
@@ -2559,10 +2589,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3">
         <v>450000</v>
@@ -2576,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="3">
         <v>1450000</v>
@@ -2607,7 +2637,7 @@
       </c>
       <c r="E22" s="11">
         <f>SUM(E2:E21)</f>
-        <v>15011865</v>
+        <v>15535740</v>
       </c>
     </row>
   </sheetData>
@@ -2621,10 +2651,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6269C661-8E84-49E6-9E10-7A8202BDFF7E}">
-  <dimension ref="B5:F16"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B5:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2663,13 +2696,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="74">
         <v>280000</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
@@ -2680,20 +2713,20 @@
         <v>260000</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="74">
         <v>300000</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
@@ -2704,24 +2737,24 @@
         <v>300000</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="74">
         <v>230000</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -2730,46 +2763,46 @@
         <v>190000</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="74">
+      <c r="B13" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="72">
         <v>150000</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>161</v>
+      <c r="D13" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
-      <c r="C14" s="74">
+      <c r="B14" s="82"/>
+      <c r="C14" s="72">
         <v>160000</v>
       </c>
-      <c r="D14" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="D14" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
@@ -2778,10 +2811,32 @@
       <c r="B16" s="78"/>
       <c r="C16" s="74"/>
       <c r="D16" s="75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" s="78"/>
       <c r="F16" s="78"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2832,10 +2887,10 @@
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2968,7 +3023,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="72">
@@ -2977,21 +3032,21 @@
       <c r="D7" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="81">
         <v>1.23</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="72">
         <v>2600000</v>
       </c>
       <c r="D8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -3010,14 +3065,14 @@
     </row>
     <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -3076,18 +3131,18 @@
     </row>
     <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L10" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="66"/>
       <c r="N10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L11" s="63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M11" s="66">
         <v>800000</v>
@@ -3097,7 +3152,7 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="12:16" x14ac:dyDescent="0.3">
@@ -3111,7 +3166,7 @@
     </row>
     <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L13" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="2"/>
@@ -3120,56 +3175,56 @@
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L14" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" s="72">
         <v>340000</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O14" s="21">
         <v>1.9</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L15" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15" s="66">
         <v>600000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L16" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="66">
         <v>400000</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
       <c r="L17" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M17" s="66">
         <v>430000</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -3180,14 +3235,14 @@
       </c>
       <c r="M18" s="66"/>
       <c r="N18" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
       <c r="L20" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
@@ -3198,13 +3253,13 @@
         <v>800000</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O21" s="21">
         <v>1.9</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
@@ -3327,7 +3382,7 @@
       <c r="S10" s="60"/>
       <c r="T10" s="61"/>
       <c r="U10" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V10" s="60" t="s">
         <v>93</v>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\csw\부동산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FB796-A00D-4943-8CB0-985B9E52ED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5FAC35-2D3C-461A-BB8B-8C982A04B20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
     <sheet name="예산" sheetId="1" r:id="rId2"/>
-    <sheet name="식세기장" sheetId="8" r:id="rId3"/>
+    <sheet name="장" sheetId="8" r:id="rId3"/>
     <sheet name="마루" sheetId="3" r:id="rId4"/>
     <sheet name="도배" sheetId="5" r:id="rId5"/>
     <sheet name="전기_목공" sheetId="4" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,10 +168,6 @@
   </si>
   <si>
     <t>https://naver.me/GkRAVBCL</t>
-  </si>
-  <si>
-    <t>우드스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>철거</t>
@@ -436,10 +432,6 @@
   </si>
   <si>
     <t>1.2 13시 방문예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아라 익스프레스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -727,10 +719,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맘카페 두배로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇청소기 장 : 19만원
 색상 : 영림 174 (우드)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -786,6 +774,57 @@
     <t>토브홈케어
 입주청소
 로봇청소기 직배수 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고장 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 29일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고장 : 145만원
+계약금 10만원 입금완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고장 설치
+(기사님 5만원 별도)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.29 목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 이전설치
+오후 1시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘카페 두배로
+010-9622-0970</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대박 가구
+010-5645-4946</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우드스토리
+010-2931-0591</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상 : 포그그레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라 익스프레스
+010-7477-2440</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1214,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1187,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,15 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,9 +1417,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,18 +1441,12 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,9 +1459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1425,12 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,6 +1508,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1616,7 +1710,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>553484</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1972,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FA7E-E94C-4703-9AAD-5AD5E5169CB8}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1989,69 +2083,69 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="75">
         <v>46012</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="76">
         <v>46013</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="76">
         <v>46014</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="76">
         <v>46015</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="76">
         <v>46016</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="76">
         <v>46017</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="77">
         <v>46018</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2065,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>9</v>
@@ -2074,29 +2168,29 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>46019</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>46020</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>46021</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>46022</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>46023</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>46024</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>46025</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -2106,24 +2200,24 @@
         <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>135</v>
+      <c r="A9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="39"/>
       <c r="G9" s="14"/>
       <c r="J9" s="12" t="s">
         <v>14</v>
@@ -2133,25 +2227,25 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>45661</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>45662</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>45663</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>45664</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>45665</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>45666</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>45667</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -2159,40 +2253,40 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="42" t="s">
-        <v>51</v>
+      <c r="D11" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>156</v>
+      <c r="F11" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>45668</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>45669</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>45670</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>45671</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>45672</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>45673</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>45674</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -2200,114 +2294,150 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>55</v>
+      <c r="A13" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>50</v>
+      <c r="G13" s="42" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>45675</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>45676</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>45677</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>45678</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>45679</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>45680</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <v>45681</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>52</v>
+      <c r="A15" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>53</v>
+      <c r="G15" s="42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>45682</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>45683</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>45684</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>45685</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>45686</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>45687</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <v>45688</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>160</v>
-      </c>
+    <row r="17" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>46054</v>
+      </c>
+      <c r="B18" s="16">
+        <v>46055</v>
+      </c>
+      <c r="C18" s="16">
+        <v>46056</v>
+      </c>
+      <c r="D18" s="16">
+        <v>46057</v>
+      </c>
+      <c r="E18" s="16">
+        <v>46058</v>
+      </c>
+      <c r="F18" s="16">
+        <v>46059</v>
+      </c>
+      <c r="G18" s="17">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>62</v>
-      </c>
-      <c r="J22" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2451,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2329,26 +2459,25 @@
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="62" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2356,16 +2485,16 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="63">
         <v>46020</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>137</v>
+      <c r="C2" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="D2" s="3">
         <v>5300000</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="46">
         <v>5444000</v>
       </c>
     </row>
@@ -2374,8 +2503,8 @@
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="63" t="s">
-        <v>167</v>
+      <c r="C3" s="57" t="s">
+        <v>164</v>
       </c>
       <c r="D3" s="3">
         <v>1000000</v>
@@ -2405,18 +2534,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3">
         <v>350000</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="64">
         <v>350000</v>
       </c>
       <c r="H5" t="s">
@@ -2428,15 +2557,15 @@
         <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="D6" s="3">
         <v>472300</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="64">
         <v>472300</v>
       </c>
       <c r="H6" t="s">
@@ -2451,43 +2580,43 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
         <v>800000</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="64">
         <v>800000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3">
         <v>41565</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="64">
         <v>41565</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="D9" s="3">
         <v>2980000</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="64">
         <v>2980000</v>
       </c>
     </row>
@@ -2500,32 +2629,32 @@
       <c r="D10" s="3">
         <v>2700000</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="64">
         <v>2700000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="63" t="s">
-        <v>146</v>
+      <c r="C11" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D11" s="3">
         <v>83000</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="64">
         <v>83000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="63" t="s">
-        <v>159</v>
+      <c r="C12" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="3">
         <v>350000</v>
@@ -2541,16 +2670,22 @@
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>1450000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1450000</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2589,15 +2724,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3">
         <v>450000</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="64">
         <v>450000</v>
       </c>
     </row>
@@ -2606,15 +2741,15 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="3">
         <v>1450000</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="64">
         <v>1450000</v>
       </c>
     </row>
@@ -2633,11 +2768,11 @@
       <c r="C22" s="9"/>
       <c r="D22" s="10">
         <f>SUM(D2:D21)</f>
-        <v>18476865</v>
+        <v>18926865</v>
       </c>
       <c r="E22" s="11">
         <f>SUM(E2:E21)</f>
-        <v>15535740</v>
+        <v>16985740</v>
       </c>
     </row>
   </sheetData>
@@ -2654,10 +2789,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B5:F19"/>
+  <dimension ref="B5:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2674,172 +2809,195 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="55" t="s">
-        <v>87</v>
+      <c r="F6" s="51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="67">
+        <v>280000</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="74">
-        <v>280000</v>
-      </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="67">
+        <v>260000</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="67">
+        <v>300000</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="67">
+        <v>300000</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="74">
-        <v>260000</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="77" t="s">
+      <c r="C11" s="67">
+        <v>230000</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="74">
-        <v>300000</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="78"/>
-      <c r="C10" s="74">
-        <v>300000</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="71"/>
+      <c r="C12" s="67">
+        <v>190000</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="65">
+        <v>150000</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="C14" s="65">
+        <v>160000</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="74">
-        <v>230000</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="74">
-        <v>190000</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="72">
-        <v>150000</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="83" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+    </row>
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="65">
+        <v>1450000</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
-      <c r="C14" s="72">
-        <v>160000</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="C20" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
@@ -2849,12 +3007,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,7 +3021,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2880,69 +3032,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="80"/>
+      <c r="F4" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>39</v>
+      <c r="F5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>37</v>
       </c>
+      <c r="G6" s="27" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="F7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="30">
         <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="31">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="34">
-        <v>2730000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="G9" s="32">
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="33">
         <f>SUM(G7:G9)</f>
         <v>2980000</v>
       </c>
@@ -2987,92 +3139,92 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="72" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="72">
+      <c r="C7" s="65">
         <v>2700000</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="72">
+        <v>1.23</v>
+      </c>
+      <c r="F7" s="72"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="65">
+        <v>2600000</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="81">
-        <v>1.23</v>
-      </c>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
-      <c r="C8" s="72">
-        <v>2600000</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="66">
+        <v>65</v>
+      </c>
+      <c r="C9" s="59">
         <v>3200000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="42" t="s">
-        <v>100</v>
+      <c r="F9" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
-        <v>142</v>
+      <c r="B10" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -3109,42 +3261,42 @@
   <sheetData>
     <row r="5" spans="12:16" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="55" t="s">
-        <v>87</v>
+      <c r="P9" s="51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L10" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="66"/>
+      <c r="L10" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="59"/>
       <c r="N10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L11" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="66">
+      <c r="L11" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="59">
         <v>800000</v>
       </c>
       <c r="N11" s="2"/>
@@ -3152,21 +3304,21 @@
         <v>1.9</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="12:16" x14ac:dyDescent="0.3">
       <c r="L12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="66"/>
+        <v>56</v>
+      </c>
+      <c r="M12" s="59"/>
       <c r="N12" s="2"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L13" s="63" t="s">
-        <v>117</v>
+      <c r="L13" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="2"/>
@@ -3174,99 +3326,99 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L14" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="72">
+      <c r="L14" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="65">
         <v>340000</v>
       </c>
-      <c r="N14" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="21">
+      <c r="N14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="18">
         <v>1.9</v>
       </c>
-      <c r="P14" s="21" t="s">
-        <v>123</v>
+      <c r="P14" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="59">
+        <v>600000</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="M15" s="66">
-        <v>600000</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L16" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="66">
+      <c r="L16" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="59">
         <v>400000</v>
       </c>
-      <c r="N16" s="63" t="s">
-        <v>114</v>
+      <c r="N16" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L17" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="66">
+      <c r="L17" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="59">
         <v>430000</v>
       </c>
-      <c r="N17" s="63" t="s">
-        <v>113</v>
+      <c r="N17" s="57" t="s">
+        <v>111</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="L18" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="63" t="s">
-        <v>125</v>
+      <c r="L18" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="L20" s="67" t="s">
-        <v>126</v>
+      <c r="L20" s="60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="L21" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="72">
+      <c r="L21" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="65">
         <v>800000</v>
       </c>
-      <c r="N21" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="21">
+      <c r="N21" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="18">
         <v>1.9</v>
       </c>
-      <c r="P21" s="21" t="s">
-        <v>123</v>
+      <c r="P21" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="58"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="58"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3283,7 +3435,7 @@
   <dimension ref="I2:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3298,116 +3450,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="R6" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R5" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="55" t="s">
+      <c r="S6" s="50">
+        <v>1800000</v>
+      </c>
+      <c r="T6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="55" t="s">
+      <c r="U6" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="R6" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" s="54">
-        <v>1800000</v>
-      </c>
-      <c r="T6" s="52" t="s">
+    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
+      <c r="R7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="50">
+        <v>1500000</v>
+      </c>
+      <c r="T7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="54" t="s">
+      <c r="U7" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="54" t="s">
+      <c r="V7" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="50"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R9" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="9:22" ht="33" x14ac:dyDescent="0.3">
+      <c r="R10" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="S10" s="54"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R11" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
-      <c r="R7" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="54">
-        <v>1500000</v>
-      </c>
-      <c r="T7" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="53" t="s">
+      <c r="S11" s="50"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="R12" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R8" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R9" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R10" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="V10" s="60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R11" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54" t="s">
+      <c r="S12" s="50"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="50" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3427,8 +3579,8 @@
   </sheetPr>
   <dimension ref="A3:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3443,82 +3595,82 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="55" t="s">
-        <v>87</v>
+      <c r="J10" s="51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="F11" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="F12" s="39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="F12" s="42" t="s">
-        <v>107</v>
-      </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="F13" s="42" t="s">
-        <v>108</v>
+      <c r="F13" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="63"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>

--- a/부동산/가온9_인테리어.xlsx
+++ b/부동산/가온9_인테리어.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\csw\부동산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5FAC35-2D3C-461A-BB8B-8C982A04B20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D0582-971D-487A-AEC9-34BA55412015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45F77FF4-D7D6-4945-9C9C-423D097BBE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="2" r:id="rId1"/>
@@ -777,14 +777,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>냉장고장 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월 29일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>냉장고장 : 145만원
 계약금 10만원 입금완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -825,6 +817,14 @@
   <si>
     <t>아라 익스프레스
 010-7477-2440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고장 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 1일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,9 +1408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1495,44 +1492,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2067,7 +2070,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,25 +2127,25 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="75">
+      <c r="A6" s="69">
         <v>46012</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="70">
         <v>46013</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="70">
         <v>46014</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="70">
         <v>46015</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="70">
         <v>46016</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="70">
         <v>46017</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="71">
         <v>46018</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -2184,7 +2187,7 @@
       <c r="D8" s="16">
         <v>46022</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>46023</v>
       </c>
       <c r="F8" s="16">
@@ -2207,7 +2210,7 @@
       <c r="A9" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -2260,10 +2263,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="68" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2294,12 +2297,12 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="39" t="s">
@@ -2308,7 +2311,7 @@
       <c r="F13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2346,7 +2349,7 @@
       <c r="F15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2382,13 +2385,11 @@
       <c r="D17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="72" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2416,15 +2417,17 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="80" t="s">
-        <v>171</v>
+      <c r="A19" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>169</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="79"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
@@ -2450,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246C1DD-F74D-4551-9A0B-DC7EB4C77356}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2474,10 +2477,10 @@
       <c r="C1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2485,16 +2488,16 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="62">
         <v>46020</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="3">
         <v>5300000</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>5444000</v>
       </c>
     </row>
@@ -2503,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="3">
@@ -2545,7 +2548,7 @@
       <c r="D5" s="3">
         <v>350000</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>350000</v>
       </c>
       <c r="H5" t="s">
@@ -2559,13 +2562,13 @@
       <c r="B6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="3">
         <v>472300</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>472300</v>
       </c>
       <c r="H6" t="s">
@@ -2586,7 +2589,7 @@
       <c r="D7" s="3">
         <v>800000</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>800000</v>
       </c>
     </row>
@@ -2599,7 +2602,7 @@
       <c r="D8" s="3">
         <v>41565</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>41565</v>
       </c>
     </row>
@@ -2610,13 +2613,13 @@
       <c r="B9" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="3">
         <v>2980000</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>2980000</v>
       </c>
     </row>
@@ -2629,7 +2632,7 @@
       <c r="D10" s="3">
         <v>2700000</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>2700000</v>
       </c>
     </row>
@@ -2638,13 +2641,13 @@
         <v>143</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="3">
         <v>83000</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>83000</v>
       </c>
     </row>
@@ -2653,7 +2656,7 @@
         <v>141</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="3">
@@ -2675,10 +2678,10 @@
         <v>142</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>166</v>
       </c>
       <c r="D14" s="3">
         <v>1450000</v>
@@ -2732,7 +2735,7 @@
       <c r="D19" s="3">
         <v>450000</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>450000</v>
       </c>
     </row>
@@ -2749,7 +2752,7 @@
       <c r="D20" s="3">
         <v>1450000</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>1450000</v>
       </c>
     </row>
@@ -2792,7 +2795,7 @@
   <dimension ref="B5:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2813,159 +2816,159 @@
       <c r="C5" s="34"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>280000</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="67">
+      <c r="B8" s="76"/>
+      <c r="C8" s="66">
         <v>260000</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>300000</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67">
+      <c r="B10" s="76"/>
+      <c r="C10" s="66">
         <v>300000</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>230000</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="75" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="67">
+      <c r="B12" s="76"/>
+      <c r="C12" s="66">
         <v>190000</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="65">
+      <c r="B13" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="64">
         <v>150000</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="77" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="65">
+      <c r="B14" s="78"/>
+      <c r="C14" s="64">
         <v>160000</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="64">
+        <v>1450000</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="C17" s="65">
-        <v>1450000</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -2992,12 +2995,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
@@ -3007,6 +3004,12 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3039,10 +3042,10 @@
       <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="82"/>
+      <c r="F4" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -3158,53 +3161,53 @@
       <c r="C5" s="34"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>2700000</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="79">
         <v>1.23</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="65">
+      <c r="B8" s="78"/>
+      <c r="C8" s="64">
         <v>2600000</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="58">
         <v>3200000</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3265,27 +3268,27 @@
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="2" t="s">
         <v>109</v>
       </c>
@@ -3293,10 +3296,10 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="58">
         <v>800000</v>
       </c>
       <c r="N11" s="2"/>
@@ -3311,13 +3314,13 @@
       <c r="L12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="2"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="56" t="s">
         <v>115</v>
       </c>
       <c r="M13" s="12"/>
@@ -3326,13 +3329,13 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="64">
         <v>340000</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="57" t="s">
         <v>110</v>
       </c>
       <c r="O14" s="18">
@@ -3343,10 +3346,10 @@
       </c>
     </row>
     <row r="15" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="58">
         <v>600000</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -3356,55 +3359,55 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="12:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="58">
         <v>400000</v>
       </c>
-      <c r="N16" s="57" t="s">
+      <c r="N16" s="56" t="s">
         <v>112</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="5:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="58">
         <v>430000</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="56" t="s">
         <v>111</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="L18" s="57" t="s">
+      <c r="L18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="57" t="s">
+      <c r="M18" s="58"/>
+      <c r="N18" s="56" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="64">
         <v>800000</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="N21" s="57" t="s">
         <v>125</v>
       </c>
       <c r="O21" s="18">
@@ -3415,10 +3418,10 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="53"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="53"/>
+      <c r="E30" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3450,115 +3453,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="51" t="s">
+      <c r="S5" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="51" t="s">
+      <c r="U5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="9:22" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="49">
         <v>1800000</v>
       </c>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="U6" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="50" t="s">
+      <c r="V6" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="9:22" ht="99" x14ac:dyDescent="0.3">
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="49">
         <v>1500000</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="U7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="50" t="s">
+      <c r="V7" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="50"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="50" t="s">
+      <c r="S8" s="49"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="50"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="50" t="s">
+      <c r="S9" s="49"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="9:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="R10" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56" t="s">
+      <c r="R10" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="53" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R11" s="50" t="s">
+      <c r="R11" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="50" t="s">
+      <c r="S11" s="49"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="R12" s="50" t="s">
+      <c r="R12" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="50" t="s">
+      <c r="S12" s="49"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3579,7 +3582,7 @@
   </sheetPr>
   <dimension ref="A3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3623,30 +3626,30 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="57" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="18" t="s">
@@ -3661,7 +3664,7 @@
         <v>105</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
@@ -3670,7 +3673,7 @@
         <v>106</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
